--- a/biology/Zoologie/Gobemouche_drongo/Gobemouche_drongo.xlsx
+++ b/biology/Zoologie/Gobemouche_drongo/Gobemouche_drongo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melaenornis edolioides
 Le Gobemouche drongo (Melaenornis edolioides) est une espèce d’oiseaux de la famille des Muscicapidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobemouche drongo mesure 20 cm de long, entièrement noir à l'âge adulte. Il est grand pour un gobemouche, et tient sa longue queue relevée. Cette queue à l'extrémité carrée permet de distinguer cette espèce de deux autres insectivores entièrement noirs, le Drongo brillant et le Drongo de Ludwig à la queue plus courte et aux yeux rouges.
 Les juvéniles sont brun-noirâtre avec des dégradés de chamois.
@@ -546,10 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chant
-Le chant de ce gobemouche est simple et musical, son chant d'appel est un petit tsee-whee.
-Reproduction
-Il niche dans un trou ou réutilise le vieux nid d'une autre espèce, et pond deux ou trois œufs. La reproduction se produit lors de la saison humide.
+          <t>Chant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chant de ce gobemouche est simple et musical, son chant d'appel est un petit tsee-whee.
 </t>
         </is>
       </c>
@@ -575,10 +592,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il niche dans un trou ou réutilise le vieux nid d'une autre espèce, et pond deux ou trois œufs. La reproduction se produit lors de la saison humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gobemouche_drongo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_drongo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend du Sénégal à l'Éthiopie et au sud jusqu'au nord de la RDC et de la Tanzanie ; il fréquente les zones humides boisées ou cultivées.
 </t>
